--- a/pred_ohlcv/54_23/2019-10-06 ZIL ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-06 ZIL ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -438,10 +438,10 @@
         <v>8.81</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         <v>8.82</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -484,7 +484,7 @@
         <v>8.970000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -507,7 +507,7 @@
         <v>8.94</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -530,7 +530,7 @@
         <v>8.94</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -553,7 +553,7 @@
         <v>8.94</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -576,7 +576,7 @@
         <v>8.9</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -599,7 +599,7 @@
         <v>8.84</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>9.050000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -668,10 +668,10 @@
         <v>8.880000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -691,10 +691,10 @@
         <v>8.970000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -944,10 +944,10 @@
         <v>8.869999999999999</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1013,10 +1013,10 @@
         <v>8.9</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1637,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1752,7 +1752,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2968,10 +2968,10 @@
         <v>8.74</v>
       </c>
       <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
         <v>1</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -2994,7 +2994,7 @@
         <v>1</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -3037,7 +3037,7 @@
         <v>8.82</v>
       </c>
       <c r="F116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -3619,6 +3619,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>